--- a/readmefiles/논리검증체크리스트.xlsx
+++ b/readmefiles/논리검증체크리스트.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,10 +107,6 @@
   </si>
   <si>
     <t>○</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -676,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -720,7 +716,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>8</v>
@@ -740,16 +736,16 @@
     </row>
     <row r="4" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>21</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>8</v>
@@ -828,7 +824,7 @@
         <v>9</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
